--- a/Testcase_OrageHRM'.xlsx
+++ b/Testcase_OrageHRM'.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BQD_Login" sheetId="1" r:id="rId1"/>
+    <sheet name="testcasengang" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,8 +27,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="H9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Times New Roman"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Pass
+Fail
+Untested
+N/A
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="86">
   <si>
     <t>Happycase</t>
   </si>
@@ -100,6 +129,222 @@
   </si>
   <si>
     <t>Báo lỗi yêu cầu nhập password và user</t>
+  </si>
+  <si>
+    <t>Function Name</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Phạm Thị Như Ngọc</t>
+  </si>
+  <si>
+    <t>Enviroment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windown </t>
+  </si>
+  <si>
+    <t>Screen resolution</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Number of Test cases</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre- Condition </t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Expected output</t>
+  </si>
+  <si>
+    <t>Actual ouput</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>TC_CP_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập tài khoản với trường hợp nhập đúng username </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Truy cập vào màn hình đăng nhập </t>
+  </si>
+  <si>
+    <t>1 Nhâp đúng username 
+2 Nhập đúng password 
+3 Click button" Login "</t>
+  </si>
+  <si>
+    <t>Username : "Admin"
+Password : "admin123</t>
+  </si>
+  <si>
+    <t>TC_CP_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập tài khoản với trường hợp username chứa space đầu cuối </t>
+  </si>
+  <si>
+    <t>1 Nhâp username chứa space đầu cuối  
+2 Nhập đúng password 
+3 Click button" Login "</t>
+  </si>
+  <si>
+    <t>Invalid credentials</t>
+  </si>
+  <si>
+    <t>Username : " Admin "
+Password : "admin123</t>
+  </si>
+  <si>
+    <t>TC_CP_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập tài khoản với trường hợp username chứa kí tự số </t>
+  </si>
+  <si>
+    <t>1 Nhâp username chứa kí tự số  
+2 Nhập đúng password 
+3 Click button" Login "</t>
+  </si>
+  <si>
+    <t>Username : "Admin123"
+Password : "admin123</t>
+  </si>
+  <si>
+    <t>TC_CP_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập tài khoản với trường hợp username chứa kí tự đặc biệt </t>
+  </si>
+  <si>
+    <t>1 Nhâp username chứa kí tự đặc biệt   
+2 Nhập đúng password 
+3 Click button" Login "</t>
+  </si>
+  <si>
+    <t>Username : "Admin@"
+Password : "admin123</t>
+  </si>
+  <si>
+    <t>TC_CP_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập tài khoản với username để trống </t>
+  </si>
+  <si>
+    <t>1 Để trống trường username    
+2 Nhập đúng password 
+3 Click button" Login "</t>
+  </si>
+  <si>
+    <t>Username : ""
+Password : "admin123</t>
+  </si>
+  <si>
+    <t>TC_CP_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập tài khoản với trường hợp password chứa sapce đầu cuối </t>
+  </si>
+  <si>
+    <t>1 Nhâp đúng username 
+2 Nhập password chứa space đầu cuối 
+3 Click button" Login "</t>
+  </si>
+  <si>
+    <t>Username : "Admin"
+Password : " admin123 "</t>
+  </si>
+  <si>
+    <t>TC_CP_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập tài khoản với trường hợp password viết hoa chữ cái đầu </t>
+  </si>
+  <si>
+    <t>1 Nhâp đúng username 
+2 Nhập password viết hoa chữ cái đầu 
+3 Click button" Login "</t>
+  </si>
+  <si>
+    <t>Username : "Admin"
+Password : "Admin123"</t>
+  </si>
+  <si>
+    <t>TC_CP_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập tài khoản với trường hợp password viết toàn bộ chữ in hoa </t>
+  </si>
+  <si>
+    <t>1 Nhâp đúng username 
+2 Nhập password viết toàn chữ in hoa  
+3 Click button" Login "</t>
+  </si>
+  <si>
+    <t>Username : "Admin"
+Password : "ADMIN123"</t>
+  </si>
+  <si>
+    <t>TC_CP_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập tài khoản với trường hợp để trống password </t>
+  </si>
+  <si>
+    <t>1 Nhâp đúng username 
+2 Để trống password 
+3 Click button" Login "</t>
+  </si>
+  <si>
+    <t>Username : "Admin"
+Password : ""</t>
+  </si>
+  <si>
+    <t>TC_CP_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập tài khoản với trường hợp để trống username và password  </t>
+  </si>
+  <si>
+    <t>1 Để trống trường username 
+2 Để trống trường password 
+3 Click button" Login "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Báo lỗi yêu cầu nhập password và username </t>
+  </si>
+  <si>
+    <t>Username : ""
+Password : ""</t>
   </si>
 </sst>
 </file>
@@ -112,13 +357,60 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -264,8 +556,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +578,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -483,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -492,29 +832,127 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -522,71 +960,38 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -599,7 +1004,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -741,7 +1220,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,139 +1239,277 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="4" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="4" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,68 +1520,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1014,6 +1631,8 @@
     <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal_Sheet1" xfId="49"/>
+    <cellStyle name="Normal 2" xfId="50"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1236,6 +1855,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dx="26" page="10" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12954000" y="2009140"/>
+              <a:ext cx="0" cy="787400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1498,15 +2167,18 @@
   <sheetPr/>
   <dimension ref="A3:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="11.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="38.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="10.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="8" width="8.33333333333333" customWidth="1"/>
+    <col min="9" max="9" width="8.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:17">
@@ -1540,466 +2212,466 @@
       <c r="N3">
         <v>10</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="E4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="E5" s="52">
+        <v>0</v>
+      </c>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="68">
+        <v>0</v>
+      </c>
+      <c r="K5" s="68">
+        <v>0</v>
+      </c>
+      <c r="L5" s="68">
+        <v>0</v>
+      </c>
+      <c r="M5" s="68">
+        <v>0</v>
+      </c>
+      <c r="N5" s="69"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53">
+        <v>0</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53">
+        <v>0</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53">
+        <v>0</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23">
-        <v>0</v>
-      </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53">
+        <v>0</v>
+      </c>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="69">
+        <v>0</v>
+      </c>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="E10" s="52">
+        <v>0</v>
+      </c>
+      <c r="F10" s="53">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0</v>
+      </c>
+      <c r="H10" s="53">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53">
+        <v>0</v>
+      </c>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="68">
+        <v>0</v>
+      </c>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68">
+        <v>0</v>
+      </c>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68">
+        <v>0</v>
+      </c>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22">
-        <v>0</v>
-      </c>
-      <c r="N14" s="23">
-        <v>0</v>
-      </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68">
+        <v>0</v>
+      </c>
+      <c r="N14" s="69">
+        <v>0</v>
+      </c>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <v>0</v>
-      </c>
-      <c r="K15" s="22">
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
-        <v>0</v>
-      </c>
-      <c r="N15" s="23">
-        <v>0</v>
-      </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="52">
+        <v>0</v>
+      </c>
+      <c r="F15" s="53">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53">
+        <v>0</v>
+      </c>
+      <c r="H15" s="53">
+        <v>0</v>
+      </c>
+      <c r="I15" s="53">
+        <v>0</v>
+      </c>
+      <c r="J15" s="68">
+        <v>0</v>
+      </c>
+      <c r="K15" s="68">
+        <v>0</v>
+      </c>
+      <c r="L15" s="68">
+        <v>0</v>
+      </c>
+      <c r="M15" s="68">
+        <v>0</v>
+      </c>
+      <c r="N15" s="69">
+        <v>0</v>
+      </c>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="E16" s="52">
+        <v>0</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
     </row>
     <row r="17" ht="15" customHeight="1" spans="1:17">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="22">
-        <v>0</v>
-      </c>
-      <c r="K17" s="22">
-        <v>0</v>
-      </c>
-      <c r="L17" s="22">
-        <v>0</v>
-      </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53">
+        <v>0</v>
+      </c>
+      <c r="G17" s="53">
+        <v>0</v>
+      </c>
+      <c r="H17" s="53">
+        <v>0</v>
+      </c>
+      <c r="I17" s="53"/>
+      <c r="J17" s="68">
+        <v>0</v>
+      </c>
+      <c r="K17" s="68">
+        <v>0</v>
+      </c>
+      <c r="L17" s="68">
+        <v>0</v>
+      </c>
+      <c r="M17" s="68"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53">
+        <v>0</v>
+      </c>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22">
-        <v>0</v>
-      </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68">
+        <v>0</v>
+      </c>
+      <c r="N19" s="69"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="5" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23">
-        <v>0</v>
-      </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="69">
+        <v>0</v>
+      </c>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2017,4 +2689,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="1.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="10.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="24.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="27.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="26.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="26.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="28.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="14.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="15.15" spans="3:9">
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" ht="15.15" spans="3:9">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" ht="15.15" spans="3:9">
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" ht="15.15" spans="3:9">
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="41"/>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="18">
+        <f>COUNTIF(I11:I946,"Passed")</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <f>COUNTIF(I11:I946,"Failed")</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21">
+        <f>MAX(C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" ht="40" customHeight="1" spans="2:10">
+      <c r="B9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" ht="62" customHeight="1" spans="2:10">
+      <c r="B10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" ht="39.6" spans="2:10">
+      <c r="B11" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" ht="39.6" spans="2:10">
+      <c r="B12" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" ht="39.6" spans="2:10">
+      <c r="B13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" ht="39.6" spans="2:10">
+      <c r="B14" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" ht="39.6" spans="2:10">
+      <c r="B15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" ht="39.6" spans="2:10">
+      <c r="B16" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" ht="39.6" spans="2:10">
+      <c r="B17" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" ht="39.6" spans="2:10">
+      <c r="B18" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="36"/>
+      <c r="I18" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" ht="39.6" spans="2:10">
+      <c r="B19" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
+      <formula1>$L$2:$L$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I3">
+      <formula1>$L$2:$L$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H19">
+      <formula1>$K$2:$K$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" name="Drop Down 1" r:id="rId4">
+              <controlPr print="0" defaultSize="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>